--- a/workingfolder/python/tables/data_moments.xlsx
+++ b/workingfolder/python/tables/data_moments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>SPF</t>
   </si>
@@ -22,6 +22,12 @@
     <t>SCE</t>
   </si>
   <si>
+    <t>FIRE+AR</t>
+  </si>
+  <si>
+    <t>FIRE+SV</t>
+  </si>
+  <si>
     <t>InfAV</t>
   </si>
   <si>
@@ -56,6 +62,24 @@
   </si>
   <si>
     <t>VarATV</t>
+  </si>
+  <si>
+    <t>$\sigma^2/(1-\rho^2)$</t>
+  </si>
+  <si>
+    <t>$\rho\sigma^2/(1-\rho^2)$</t>
+  </si>
+  <si>
+    <t>$\sigma^2$</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>$\bar\sigma^2_{\eta}+\bar\sigma^2_{\epsilon}$</t>
+  </si>
+  <si>
+    <t>&gt;0</t>
   </si>
 </sst>
 </file>
@@ -413,34 +437,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>2.146</v>
+        <v>-0</v>
       </c>
       <c r="C2">
-        <v>2.251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1.145</v>
@@ -448,10 +484,16 @@
       <c r="C3">
         <v>3.959</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.115</v>
@@ -459,10 +501,16 @@
       <c r="C4">
         <v>0.417</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>-0.15</v>
@@ -470,10 +518,16 @@
       <c r="C5">
         <v>1.062</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1.032</v>
@@ -481,10 +535,16 @@
       <c r="C6">
         <v>3.794</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.006</v>
@@ -492,10 +552,16 @@
       <c r="C7">
         <v>0.631</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.2</v>
@@ -503,10 +569,16 @@
       <c r="C8">
         <v>2.695</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.042</v>
@@ -514,10 +586,16 @@
       <c r="C9">
         <v>0.146</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.01</v>
@@ -525,10 +603,16 @@
       <c r="C10">
         <v>-0.015</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.246</v>
@@ -536,10 +620,16 @@
       <c r="C11">
         <v>1.738</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0.002</v>
@@ -547,16 +637,28 @@
       <c r="C12">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0.001</v>
       </c>
       <c r="C13">
         <v>-0.005</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/workingfolder/python/tables/data_moments.xlsx
+++ b/workingfolder/python/tables/data_moments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>SPF</t>
   </si>
@@ -28,6 +28,9 @@
     <t>FIRE+SV</t>
   </si>
   <si>
+    <t>SE+AR</t>
+  </si>
+  <si>
     <t>InfAV</t>
   </si>
   <si>
@@ -80,6 +83,12 @@
   </si>
   <si>
     <t>&gt;0</t>
+  </si>
+  <si>
+    <t>$\lambda^2\sigma^2/(1-(1-\lambda)^2\rho^2)$</t>
+  </si>
+  <si>
+    <t>$(1-\lambda)\rho\text{FEVar}$</t>
   </si>
 </sst>
 </file>
@@ -437,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,10 +465,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>-0</v>
@@ -471,12 +483,15 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1.145</v>
@@ -485,15 +500,18 @@
         <v>3.959</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0.115</v>
@@ -502,15 +520,18 @@
         <v>0.417</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>-0.15</v>
@@ -524,10 +545,13 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1.032</v>
@@ -536,15 +560,18 @@
         <v>3.794</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0.006</v>
@@ -558,10 +585,13 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0.2</v>
@@ -575,10 +605,13 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0.042</v>
@@ -592,10 +625,13 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0.01</v>
@@ -609,10 +645,13 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0.246</v>
@@ -621,15 +660,18 @@
         <v>1.738</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0.002</v>
@@ -641,12 +683,15 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0.001</v>
@@ -658,7 +703,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/workingfolder/python/tables/data_moments.xlsx
+++ b/workingfolder/python/tables/data_moments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>SPF</t>
   </si>
@@ -28,9 +28,6 @@
     <t>FIRE+SV</t>
   </si>
   <si>
-    <t>SE+AR</t>
-  </si>
-  <si>
     <t>InfAV</t>
   </si>
   <si>
@@ -83,12 +80,6 @@
   </si>
   <si>
     <t>&gt;0</t>
-  </si>
-  <si>
-    <t>$\lambda^2\sigma^2/(1-(1-\lambda)^2\rho^2)$</t>
-  </si>
-  <si>
-    <t>$(1-\lambda)\rho\text{FEVar}$</t>
   </si>
 </sst>
 </file>
@@ -446,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,13 +456,10 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>-0</v>
@@ -482,16 +470,13 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1.145</v>
@@ -500,38 +485,32 @@
         <v>3.959</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.918</v>
+      </c>
+      <c r="C4">
+        <v>3.763</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.115</v>
-      </c>
-      <c r="C4">
-        <v>0.417</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B5">
         <v>-0.15</v>
@@ -545,13 +524,10 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1.032</v>
@@ -560,18 +536,15 @@
         <v>3.794</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.006</v>
@@ -585,13 +558,10 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.2</v>
@@ -605,13 +575,10 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.042</v>
@@ -625,13 +592,10 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.01</v>
@@ -645,13 +609,10 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.246</v>
@@ -660,18 +621,15 @@
         <v>1.738</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0.002</v>
@@ -683,15 +641,12 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0.001</v>
@@ -703,10 +658,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/workingfolder/python/tables/data_moments.xlsx
+++ b/workingfolder/python/tables/data_moments.xlsx
@@ -1,111 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>SPF</t>
-  </si>
-  <si>
-    <t>SCE</t>
-  </si>
-  <si>
-    <t>FIRE+AR</t>
-  </si>
-  <si>
-    <t>FIRE+SV</t>
-  </si>
-  <si>
-    <t>InfAV</t>
-  </si>
-  <si>
-    <t>InfVar</t>
-  </si>
-  <si>
-    <t>InfATV</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>FEVar</t>
-  </si>
-  <si>
-    <t>FEATV</t>
-  </si>
-  <si>
-    <t>Disg</t>
-  </si>
-  <si>
-    <t>DisgVar</t>
-  </si>
-  <si>
-    <t>DisgATV</t>
-  </si>
-  <si>
-    <t>Var</t>
-  </si>
-  <si>
-    <t>VarVar</t>
-  </si>
-  <si>
-    <t>VarATV</t>
-  </si>
-  <si>
-    <t>$\sigma^2/(1-\rho^2)$</t>
-  </si>
-  <si>
-    <t>$\rho\sigma^2/(1-\rho^2)$</t>
-  </si>
-  <si>
-    <t>$\sigma^2$</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>$\bar\sigma^2_{\eta}+\bar\sigma^2_{\epsilon}$</t>
-  </si>
-  <si>
-    <t>&gt;0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,232 +420,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SPF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SCE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FIRE+AR</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>FIRE+SV</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>InfAV</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+      <c r="C2" t="n">
         <v>-0</v>
       </c>
-      <c r="C2">
-        <v>-0</v>
-      </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1.145</v>
-      </c>
-      <c r="C3">
-        <v>3.959</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.918</v>
-      </c>
-      <c r="C4">
-        <v>3.763</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>-0.15</v>
-      </c>
-      <c r="C5">
-        <v>1.062</v>
-      </c>
-      <c r="D5">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>InfVar</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$\sigma^2_\omega/(1-\rho^2)$</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>InfATV</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$\rho\sigma^2_\omega/(1-\rho^2)$</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>FE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1.032</v>
-      </c>
-      <c r="C6">
-        <v>3.794</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.006</v>
-      </c>
-      <c r="C7">
-        <v>0.631</v>
-      </c>
-      <c r="D7">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>FEVar</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$\sigma^2_\omega$</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$\bar\sigma^2_{\eta}+\bar\sigma^2_{z}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Disg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.805</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.2</v>
-      </c>
-      <c r="C8">
-        <v>2.695</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0.042</v>
-      </c>
-      <c r="C9">
-        <v>0.146</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0.01</v>
-      </c>
-      <c r="C10">
-        <v>-0.015</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0.246</v>
-      </c>
-      <c r="C11">
-        <v>1.738</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0.002</v>
-      </c>
-      <c r="C12">
-        <v>0.04</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0.001</v>
-      </c>
-      <c r="C13">
-        <v>-0.005</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Var</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$\sigma^2_\omega$</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$\bar\sigma^2_{\eta}+\bar\sigma^2_{z}$</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>